--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222給与.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222給与.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE02007-9558-4A7A-A69A-B2E1A8314264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10964F34-B14C-4317-9FCB-F8BB886F200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8424" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{B736CE35-A48E-457E-9E41-8A11CE2810C6}"/>
+    <workbookView xWindow="11496" yWindow="696" windowWidth="9444" windowHeight="12012" xr2:uid="{B736CE35-A48E-457E-9E41-8A11CE2810C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1.25償却資産" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -70,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>償却資産</t>
     <phoneticPr fontId="5"/>
@@ -201,9 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>marquise</t>
-  </si>
-  <si>
     <t>ファミリア歯科</t>
     <rPh sb="5" eb="7">
       <t>シカ</t>
@@ -906,6 +901,23 @@
   </si>
   <si>
     <t>㈱リッシュカンパニー</t>
+  </si>
+  <si>
+    <t>津島歯科クリニック</t>
+    <rPh sb="0" eb="2">
+      <t>ツシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(株)Wreath&amp;Co.</t>
+    <rPh sb="0" eb="3">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1696,9 +1708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85C105B-6BD9-41EB-9543-F3C4C2AD5359}">
-  <dimension ref="A1:HU85"/>
+  <dimension ref="A1:HU86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3349,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>758</v>
+        <v>1433</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D3" s="11">
-        <v>7000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4" spans="1:229" ht="15.75" customHeight="1">
@@ -3363,13 +3377,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>955</v>
+        <v>758</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11">
-        <v>14000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:229" ht="20.100000000000001" customHeight="1">
@@ -3377,13 +3391,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>1985</v>
+        <v>955</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11">
-        <v>40000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="6" spans="1:229" ht="20.100000000000001" customHeight="1">
@@ -3391,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1656</v>
+        <v>1985</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11">
-        <v>12000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="7" spans="1:229">
@@ -3405,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>143</v>
+        <v>1656</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="11">
-        <v>16000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:229">
@@ -3419,13 +3433,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11">
-        <v>21000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:229">
@@ -3433,13 +3447,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="11">
-        <v>9000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:229">
@@ -3447,13 +3461,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>503</v>
+        <v>260</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11">
-        <v>15000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:229">
@@ -3461,13 +3475,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>928</v>
+        <v>503</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="11">
-        <v>22000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:229">
@@ -3475,13 +3489,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>493</v>
+        <v>928</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="11">
-        <v>16000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="13" spans="1:229">
@@ -3489,13 +3503,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>1170</v>
+        <v>493</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11">
-        <v>14000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" spans="1:229">
@@ -3503,13 +3517,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
-        <v>1376</v>
+        <v>1170</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="11">
-        <v>11000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="15" spans="1:229">
@@ -3517,13 +3531,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="13">
-        <v>1414</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="11">
-        <v>13000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:229">
@@ -3531,13 +3545,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="13">
-        <v>1440</v>
+        <v>1414</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11">
-        <v>9000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3545,10 +3559,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="13">
-        <v>1581</v>
+        <v>1440</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11">
         <v>9000</v>
@@ -3559,13 +3573,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="13">
-        <v>1849</v>
+        <v>1581</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11">
-        <v>53000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3573,13 +3587,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="13">
-        <v>1956</v>
+        <v>1849</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11">
-        <v>10000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3587,13 +3601,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="13">
-        <v>120</v>
+        <v>1956</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="11">
-        <v>12000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3601,13 +3615,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="13">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="11">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3615,13 +3629,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="13">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="11">
-        <v>8000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3629,13 +3643,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="13">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="11">
-        <v>17000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3643,13 +3657,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="13">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="11">
-        <v>5100</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3657,13 +3671,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="13">
-        <v>626</v>
+        <v>547</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="11">
-        <v>22000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3671,13 +3685,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="13">
-        <v>1834</v>
+        <v>626</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="11">
-        <v>21000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3685,13 +3699,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="13">
-        <v>161</v>
+        <v>1834</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="11">
-        <v>40500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3699,13 +3713,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="13">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="11">
-        <v>57000</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3713,13 +3727,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="13">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="11">
-        <v>7000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3727,13 +3741,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="13">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="11">
-        <v>39000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3741,13 +3755,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="13">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11">
-        <v>9000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3755,13 +3769,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="13">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="11">
-        <v>10000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3769,13 +3783,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="13">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="11">
-        <v>35000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3783,13 +3797,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="13">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3797,13 +3811,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="13">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3811,13 +3825,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="13">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="11">
-        <v>17000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3825,10 +3839,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="13">
-        <v>633</v>
+        <v>523</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="11">
         <v>17000</v>
@@ -3839,13 +3853,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="13">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="11">
-        <v>11000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3853,13 +3867,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="13">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="11">
-        <v>13000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3867,13 +3881,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D40" s="11">
-        <v>16000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3881,13 +3895,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="13">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="11">
-        <v>14000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3895,13 +3909,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="13">
-        <v>858</v>
+        <v>683</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11">
-        <v>13000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3909,13 +3923,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="13">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="11">
-        <v>15000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3923,13 +3937,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="13">
-        <v>903</v>
+        <v>822</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="11">
-        <v>7000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3937,13 +3951,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="13">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="11">
-        <v>14000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3951,13 +3965,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="13">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="11">
-        <v>17000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3965,13 +3979,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="13">
-        <v>1064</v>
+        <v>980</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="11">
-        <v>15000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3979,13 +3993,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="13">
-        <v>1078</v>
+        <v>407</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D48" s="11">
-        <v>14000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3993,10 +4007,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="13">
-        <v>1019</v>
+        <v>1078</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="11">
         <v>14000</v>
@@ -4007,13 +4021,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="13">
-        <v>1130</v>
+        <v>1019</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="11">
-        <v>13000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4021,13 +4035,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="13">
-        <v>1165</v>
+        <v>1130</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="11">
-        <v>9000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4035,13 +4049,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="13">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="11">
-        <v>19000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4049,13 +4063,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="13">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="11">
-        <v>7000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4063,10 +4077,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="13">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="11">
         <v>7000</v>
@@ -4077,10 +4091,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="13">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" s="11">
         <v>7000</v>
@@ -4091,10 +4105,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="13">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56" s="11">
         <v>7000</v>
@@ -4105,13 +4119,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="13">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D57" s="11">
-        <v>13000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4119,13 +4133,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="13">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D58" s="11">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4133,13 +4147,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="13">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" s="11">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4147,13 +4161,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="13">
-        <v>1623</v>
+        <v>1281</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" s="11">
-        <v>13000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4161,13 +4175,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="13">
-        <v>1772</v>
+        <v>1623</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="11">
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4175,13 +4189,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="13">
-        <v>1804</v>
+        <v>1772</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D62" s="11">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4189,13 +4203,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="13">
-        <v>1948</v>
+        <v>1804</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="11">
-        <v>14000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4203,13 +4217,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="13">
-        <v>1017</v>
+        <v>1948</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="11">
-        <v>12000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4217,13 +4231,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="13">
-        <v>9583</v>
+        <v>1017</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D65" s="11">
-        <v>78000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4231,13 +4245,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="13">
-        <v>400</v>
+        <v>9583</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" s="11">
-        <v>11300</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4245,13 +4259,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="13">
-        <v>786</v>
+        <v>400</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67" s="11">
-        <v>12000</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4259,13 +4273,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="13">
-        <v>303</v>
+        <v>786</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" s="11">
-        <v>13100</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4273,13 +4287,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="13">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="11">
-        <v>7800</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4287,13 +4301,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="13">
-        <v>920</v>
+        <v>451</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11">
-        <v>7700</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4301,13 +4315,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="13">
-        <v>552</v>
+        <v>920</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71" s="11">
-        <v>19800</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4315,13 +4329,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="13">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72" s="11">
-        <v>8500</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4329,13 +4343,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="13">
-        <v>882</v>
+        <v>386</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11">
-        <v>15500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4343,13 +4357,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="13">
-        <v>962</v>
+        <v>882</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11">
-        <v>30900</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4357,13 +4371,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="13">
-        <v>376</v>
+        <v>962</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D75" s="11">
-        <v>61000</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4371,13 +4385,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="13">
-        <v>756</v>
+        <v>376</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76" s="11">
-        <v>12700</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4385,13 +4399,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="13">
-        <v>173</v>
+        <v>756</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77" s="11">
-        <v>8500</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4399,13 +4413,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="13">
-        <v>767</v>
+        <v>173</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D78" s="11">
-        <v>20400</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4413,13 +4427,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="13">
-        <v>114</v>
+        <v>767</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D79" s="11">
-        <v>6500</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4427,13 +4441,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="13">
-        <v>733</v>
+        <v>114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D80" s="11">
-        <v>6000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4441,13 +4455,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="13">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D81" s="11">
-        <v>8500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4455,13 +4469,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="13">
-        <v>849</v>
+        <v>742</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D82" s="11">
-        <v>8000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4469,13 +4483,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="13">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" s="11">
-        <v>7500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4483,13 +4497,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="13">
-        <v>1349</v>
+        <v>856</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" s="11">
-        <v>8000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4497,13 +4511,27 @@
         <v>83</v>
       </c>
       <c r="B85" s="13">
+        <v>1349</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="11">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="15">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17">
         <v>801</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="11">
-        <v>131000</v>
+      <c r="C86" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="4">
+        <v>130400</v>
       </c>
     </row>
   </sheetData>
